--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,88 +66,82 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2 - x + 0.8565037622097824y</t>
-  </si>
-  <si>
-    <t>2.853473755241784</t>
+    <t>-2.2665126862411356 - x + 0.8732749362278731y</t>
+  </si>
+  <si>
+    <t>4.2665126862411356</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5719608447391625</t>
-  </si>
-  <si>
-    <t>0.5028815807592402</t>
-  </si>
-  <si>
-    <t>0.8042785308668784</t>
-  </si>
-  <si>
-    <t>-2 - 0.25x + 0.672956621844949y</t>
-  </si>
-  <si>
-    <t>-0.3578125835851879</t>
-  </si>
-  <si>
-    <t>0.8600010900817717</t>
-  </si>
-  <si>
-    <t>0.25235293016503735</t>
-  </si>
-  <si>
-    <t>0.6319231590509077</t>
-  </si>
-  <si>
-    <t>-8 + x + 0.030487450054021092y</t>
-  </si>
-  <si>
-    <t>-6.091344000795628</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>5.8999999999999995</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>-16.162969222615605 - 0.25x + 3.388306752564147y</t>
+  </si>
+  <si>
+    <t>14.162969222615605</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>2.552455640104636 + x - 0.931393422785495y</t>
+  </si>
+  <si>
+    <t>-10.552455640104636</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2524405147195238</t>
-  </si>
-  <si>
-    <t>0.6319558865519512</t>
-  </si>
-  <si>
-    <t>0.2202085540550177</t>
-  </si>
-  <si>
-    <t>-2 + x + 1.0193433106225216y</t>
-  </si>
-  <si>
-    <t>2.9879967610634353</t>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>-19.340469222615607 + x + 3.388306752564147y</t>
+  </si>
+  <si>
+    <t>16.700469222615606</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.25205297546627203</t>
-  </si>
-  <si>
-    <t>0.7324548420049566</t>
-  </si>
-  <si>
-    <t>0.9571889540815123</t>
-  </si>
-  <si>
-    <t>0.575015938750449y</t>
-  </si>
-  <si>
-    <t>1.7906249935101166</t>
-  </si>
-  <si>
-    <t>0.0911069374509522</t>
-  </si>
-  <si>
-    <t>0.8822932025660875</t>
-  </si>
-  <si>
-    <t>0.5399543993246082</t>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>8.299999999999999</t>
+  </si>
+  <si>
+    <t>-6.421396745838298 + 1.1527229158207923y</t>
+  </si>
+  <si>
+    <t>5.671396745838298</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>x</t>
@@ -156,25 +150,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.8137167351315309</t>
-  </si>
-  <si>
-    <t>3.1140441035448054</t>
+    <t>2.0300000000000002</t>
+  </si>
+  <si>
+    <t>4.92</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.38564276693338795</t>
+    <t>-3.3491134804942986</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.7984409152564083</t>
-  </si>
-  <si>
-    <t>-2.8737648624479344</t>
+    <t>-12.05</t>
+  </si>
+  <si>
+    <t>-44.877814336823185</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -688,27 +682,27 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -726,18 +720,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -755,12 +749,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -778,17 +772,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -806,12 +800,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9390250998919578</v>
+        <v>2.86278684557099</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,82 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-2.2665126862411356 - x + 0.8732749362278731y</t>
-  </si>
-  <si>
-    <t>4.2665126862411356</t>
+    <t>5.157248677248677 - x + 0.21164021164021174y</t>
+  </si>
+  <si>
+    <t>-3.1572486772486767</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.62</t>
+    <t>0.21</t>
   </si>
   <si>
     <t>5.8999999999999995</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>-16.162969222615605 - 0.25x + 3.388306752564147y</t>
-  </si>
-  <si>
-    <t>14.162969222615605</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>2.552455640104636 + x - 0.931393422785495y</t>
-  </si>
-  <si>
-    <t>-10.552455640104636</t>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>-3.4154497354497355 - 0.25x + 1.9576719576719577y</t>
+  </si>
+  <si>
+    <t>1.4154497354497355</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>-4.58085 + x - 0.44500000000000006y</t>
+  </si>
+  <si>
+    <t>-3.41915</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>-19.340469222615607 + x + 3.388306752564147y</t>
-  </si>
-  <si>
-    <t>16.700469222615606</t>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>-6.591375661375662 + x + 0.10582010582010604y</t>
+  </si>
+  <si>
+    <t>3.9413756613756616</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>8.299999999999999</t>
-  </si>
-  <si>
-    <t>-6.421396745838298 + 1.1527229158207923y</t>
-  </si>
-  <si>
-    <t>5.671396745838298</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>9.399999999999999</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>-12.213280423280427 + 4.867724867724869y</t>
+  </si>
+  <si>
+    <t>12.023280423280427</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.7000000000000001</t>
+  </si>
+  <si>
+    <t>9.200000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -150,25 +156,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.0300000000000002</t>
-  </si>
-  <si>
-    <t>4.92</t>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>2.47</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-3.3491134804942986</t>
+    <t>-1.3180854497354502</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-12.05</t>
-  </si>
-  <si>
-    <t>-44.877814336823185</t>
+    <t>-5.5249999999999995</t>
+  </si>
+  <si>
+    <t>-11.180007936507941</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -682,27 +688,27 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -720,18 +726,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -749,12 +755,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -772,17 +778,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -800,12 +806,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.86278684557099</v>
+        <v>1.8900000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,88 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.157248677248677 - x + 0.21164021164021174y</t>
-  </si>
-  <si>
-    <t>-3.1572486772486767</t>
+    <t>-15.454946236559138 - x + 3.2795698924731185y</t>
+  </si>
+  <si>
+    <t>17.454946236559138</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>5.8999999999999995</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>-3.4154497354497355 - 0.25x + 1.9576719576719577y</t>
-  </si>
-  <si>
-    <t>1.4154497354497355</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>-4.58085 + x - 0.44500000000000006y</t>
-  </si>
-  <si>
-    <t>-3.41915</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>-21.030268817204302 - 0.25x + 3.602150537634409y</t>
+  </si>
+  <si>
+    <t>19.030268817204302</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>-4.78 + x</t>
+  </si>
+  <si>
+    <t>-3.2199999999999998</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>-6.591375661375662 + x + 0.10582010582010604y</t>
-  </si>
-  <si>
-    <t>3.9413756613756616</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>-28.19043010752688 + x + 3.763440860215053y</t>
+  </si>
+  <si>
+    <t>26.000430107526878</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>9.399999999999999</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>-12.213280423280427 + 4.867724867724869y</t>
-  </si>
-  <si>
-    <t>12.023280423280427</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.7000000000000001</t>
-  </si>
-  <si>
-    <t>9.200000000000001</t>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>-17.55774193548387 + 2.741935483870968y</t>
+  </si>
+  <si>
+    <t>16.91774193548387</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
   <si>
     <t>x</t>
@@ -156,25 +156,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>2.47</t>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>6.17</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.3180854497354502</t>
+    <t>-7.047849462365592</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-5.5249999999999995</t>
-  </si>
-  <si>
-    <t>-11.180007936507941</t>
+    <t>-11.075</t>
+  </si>
+  <si>
+    <t>-81.17204301075269</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -811,7 +811,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.8900000000000001</v>
+        <v>1.8599999999999999</v>
       </c>
     </row>
   </sheetData>
